--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,8 +388,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="8.4"/>
-    <col customWidth="1" max="6" min="6" width="22.8"/>
+    <col customWidth="1" max="6" min="6" width="8.4"/>
+    <col customWidth="1" max="7" min="7" width="22.8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -399,69 +399,80 @@
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>▷</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>CarPollutionPermit</t>
         </is>
@@ -469,204 +480,204 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n"/>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>BikePollutionPermit</t>
         </is>
       </c>
-      <c r="K5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="G6" t="inlineStr">
+      <c r="C6" s="2" t="n"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="K6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="G7" t="inlineStr">
+      <c r="C7" s="2" t="n"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
       </c>
-      <c r="K7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="C8" s="2" t="n"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>TractorPollutionPermit</t>
         </is>
       </c>
-      <c r="K8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="G9" t="inlineStr">
+      <c r="C9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>fetch_tractor</t>
         </is>
       </c>
-      <c r="K9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
       <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="C10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
         </is>
       </c>
-      <c r="K10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
       <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="G11" t="inlineStr">
+      <c r="C11" s="2" t="n"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>fetch_pesticides_permit</t>
         </is>
       </c>
-      <c r="K11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
       <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Vehicle</t>
         </is>
       </c>
-      <c r="K12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
       <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="n"/>
-      <c r="G13" t="inlineStr">
+      <c r="D13" s="2" t="n"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="K13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="n"/>
-      <c r="G14" t="inlineStr">
+      <c r="D14" s="2" t="n"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>mileage_calculator</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -674,99 +685,123 @@
           <t>◁</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Car</t>
         </is>
       </c>
-      <c r="J15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="n"/>
-      <c r="G16" t="inlineStr">
+      <c r="D16" s="2" t="n"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="n"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
       <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
-      <c r="G17" t="inlineStr">
+      <c r="D17" s="2" t="n"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>pollution_permit</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
       <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>▷</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>Farzi</t>
         </is>
       </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
-      <c r="G19" t="inlineStr">
+      <c r="D19" s="2" t="n"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="M19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
       <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
-      <c r="G20" t="inlineStr">
+      <c r="D20" s="2" t="n"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>check_farzi</t>
         </is>
       </c>
-      <c r="M20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
       <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -776,63 +811,72 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
+          <t>◁</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Bike</t>
         </is>
       </c>
-      <c r="M21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
       <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="n"/>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>pollution_permit</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="n"/>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
       <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>check_farzi</t>
         </is>
       </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -462,7 +462,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -479,7 +479,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -493,7 +493,7 @@
       <c r="M3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>check_permit</t>
@@ -508,7 +508,7 @@
       <c r="N4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
@@ -528,7 +528,7 @@
       <c r="N5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="n"/>
       <c r="H6" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       <c r="N6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
       <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="n"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="H9" t="inlineStr">
@@ -593,7 +593,7 @@
       <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="n"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
       <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
       <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
       <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="n"/>
       <c r="D13" s="2" t="n"/>
       <c r="H13" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
       <c r="H14" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>◁</t>
         </is>
@@ -702,7 +702,7 @@
       <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
       <c r="H16" t="inlineStr">
@@ -722,7 +722,7 @@
       <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
       <c r="D17" s="2" t="n"/>
       <c r="H17" t="inlineStr">
@@ -741,12 +741,12 @@
       <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
+      <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
       <c r="G18" t="inlineStr">

--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -73,16 +73,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -380,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,21 +455,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="inlineStr">
@@ -485,12 +480,16 @@
           <t>__init__</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="n"/>
@@ -499,17 +498,17 @@
           <t>check_permit</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -524,45 +523,47 @@
           <t>BikePollutionPermit</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>⇒</t>
@@ -573,182 +574,194 @@
           <t>TractorPollutionPermit</t>
         </is>
       </c>
-      <c r="L8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>fetch_tractor</t>
         </is>
       </c>
-      <c r="L9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
         </is>
       </c>
-      <c r="L10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>fetch_pesticides_permit</t>
         </is>
       </c>
-      <c r="L11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
     </row>
     <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
       <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Vehicle</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>mileage_calculator</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>◁</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>pollution_permit</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>__init__</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>mileage_calculator</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>◁</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>__init__</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>pollution_permit</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>⇒</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>▷</t>
@@ -759,67 +772,66 @@
           <t>Farzi</t>
         </is>
       </c>
-      <c r="N18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="N19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>check_farzi</t>
         </is>
       </c>
-      <c r="N20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
           <t>◁</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>◁</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -829,10 +841,11 @@
           <t>Bike</t>
         </is>
       </c>
-      <c r="N21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="H22" t="inlineStr">
@@ -840,15 +853,15 @@
           <t>__init__</t>
         </is>
       </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="R22" s="2" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="H23" t="inlineStr">
@@ -856,14 +869,18 @@
           <t>pollution_permit</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr">
+      <c r="M23" s="3" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
+      <c r="N23" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="H24" t="inlineStr">
@@ -871,12 +888,16 @@
           <t>check_farzi</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
+      <c r="O24" s="3" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="R24" s="2" t="n"/>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -86,12 +92,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -457,12 +464,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>▷</t>
         </is>
@@ -474,46 +481,46 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="n"/>
+      <c r="A3" s="2" t="n"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="n"/>
+      <c r="A4" s="2" t="n"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
       </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="n"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="A5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -523,48 +530,48 @@
           <t>BikePollutionPermit</t>
         </is>
       </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="A6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="A7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
       </c>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="n"/>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" t="inlineStr">
+      <c r="D8" s="2" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -574,65 +581,65 @@
           <t>TractorPollutionPermit</t>
         </is>
       </c>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="N8" s="4" t="n"/>
     </row>
     <row r="9">
+      <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>fetch_tractor</t>
         </is>
       </c>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="N9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="n"/>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
         </is>
       </c>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="N10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="A11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>fetch_pesticides_permit</t>
         </is>
       </c>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+      <c r="N11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" t="inlineStr">
+      <c r="D12" s="2" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -642,127 +649,127 @@
           <t>Vehicle</t>
         </is>
       </c>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+      <c r="N12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+      <c r="N13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>mileage_calculator</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="n"/>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
           <t>◁</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Car</t>
         </is>
       </c>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
+      <c r="I15" s="4" t="n"/>
+      <c r="J15" s="4" t="n"/>
+      <c r="K15" s="4" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="4" t="n"/>
+      <c r="N15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
+      <c r="I16" s="4" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="4" t="n"/>
+      <c r="N16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>pollution_permit</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="4" t="n"/>
+      <c r="N17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>▷</t>
         </is>
@@ -772,24 +779,24 @@
           <t>Farzi</t>
         </is>
       </c>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="4" t="n"/>
+      <c r="N18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="n"/>
-      <c r="O19" s="3" t="inlineStr">
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="4" t="n"/>
+      <c r="N19" s="4" t="n"/>
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -797,19 +804,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>check_farzi</t>
         </is>
       </c>
-      <c r="L20" s="3" t="n"/>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
-      <c r="O20" s="3" t="n"/>
-      <c r="P20" s="3" t="inlineStr">
+      <c r="L20" s="4" t="n"/>
+      <c r="M20" s="4" t="n"/>
+      <c r="N20" s="4" t="n"/>
+      <c r="O20" s="4" t="n"/>
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
@@ -818,34 +825,34 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
           <t>◁</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>◁</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Bike</t>
         </is>
       </c>
-      <c r="L21" s="3" t="n"/>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="n"/>
-      <c r="O21" s="3" t="n"/>
-      <c r="P21" s="3" t="n"/>
+      <c r="L21" s="4" t="n"/>
+      <c r="M21" s="4" t="n"/>
+      <c r="N21" s="4" t="n"/>
+      <c r="O21" s="4" t="n"/>
+      <c r="P21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="H22" t="inlineStr">
@@ -853,15 +860,15 @@
           <t>__init__</t>
         </is>
       </c>
-      <c r="L22" s="3" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="n"/>
+      <c r="M22" s="4" t="n"/>
+      <c r="N22" s="4" t="n"/>
+      <c r="O22" s="4" t="n"/>
+      <c r="P22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="H23" t="inlineStr">
@@ -869,18 +876,18 @@
           <t>pollution_permit</t>
         </is>
       </c>
-      <c r="M23" s="3" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="N23" s="3" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="n"/>
+      <c r="O23" s="4" t="n"/>
+      <c r="P23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="H24" t="inlineStr">
@@ -888,12 +895,12 @@
           <t>check_farzi</t>
         </is>
       </c>
-      <c r="O24" s="3" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="P24" s="3" t="inlineStr">
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>→</t>
         </is>

--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -464,7 +464,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>check_permit</t>
@@ -514,12 +514,12 @@
       <c r="L4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
@@ -535,8 +535,8 @@
       <c r="L5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -547,8 +547,8 @@
       <c r="L6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>check_permit</t>
@@ -564,13 +564,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
       <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
@@ -587,9 +587,9 @@
       <c r="N8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>fetch_tractor</t>
@@ -601,13 +601,13 @@
       <c r="N9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
       <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
@@ -619,8 +619,8 @@
       <c r="N10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
       <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>fetch_pesticides_permit</t>
@@ -632,13 +632,13 @@
       <c r="N11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
       <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
       <c r="F12" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
@@ -655,9 +655,9 @@
       <c r="N12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
       <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -669,9 +669,9 @@
       <c r="N13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>mileage_calculator</t>
@@ -693,17 +693,17 @@
       <c r="N14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>◁</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Car</t>
@@ -717,9 +717,9 @@
       <c r="N15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -733,9 +733,9 @@
       <c r="N16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
       <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>pollution_permit</t>
@@ -761,14 +761,14 @@
       <c r="N17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>⇒</t>
-        </is>
-      </c>
+      <c r="E18" s="2" t="n"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
           <t>▷</t>
@@ -785,7 +785,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="H19" t="inlineStr">
@@ -804,7 +804,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="H20" t="inlineStr">
@@ -828,7 +828,7 @@
           <t>◁</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>

--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -464,14 +464,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>▷</t>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>⇒</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="E4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>check_permit</t>
@@ -519,10 +519,10 @@
           <t>⇒</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>⇒</t>
+      <c r="D5" s="2" t="n"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>▷</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -536,7 +536,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -548,7 +548,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>check_permit</t>
@@ -565,15 +565,15 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>⇒</t>
+      <c r="D8" s="2" t="n"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>▷</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -588,8 +588,8 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>fetch_tractor</t>
@@ -602,12 +602,12 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>◁</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
@@ -620,7 +620,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>fetch_pesticides_permit</t>
@@ -633,15 +633,15 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>⇒</t>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>▷</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>▷</t>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>⇒</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Farzi</t>
+          <t>CheckFraud</t>
         </is>
       </c>
       <c r="L18" s="4" t="n"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="H19" t="inlineStr">
@@ -804,12 +804,12 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>check_farzi</t>
+          <t>check_fraud</t>
         </is>
       </c>
       <c r="L20" s="4" t="n"/>
@@ -825,12 +825,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
           <t>◁</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="24">
       <c r="H24" t="inlineStr">
         <is>
-          <t>check_farzi</t>
+          <t>check_fraud_bike</t>
         </is>
       </c>
       <c r="O24" s="4" t="inlineStr">

--- a/Seq_Diag_Dependency_2.xlsx
+++ b/Seq_Diag_Dependency_2.xlsx
@@ -464,7 +464,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>check_permit</t>
@@ -514,12 +514,12 @@
       <c r="L4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>▷</t>
@@ -535,7 +535,7 @@
       <c r="L5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
       <c r="H6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       <c r="L6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
       <c r="H7" t="inlineStr">
         <is>
@@ -564,12 +564,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
+      <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
@@ -587,8 +587,8 @@
       <c r="N8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
       <c r="H9" t="inlineStr">
         <is>
@@ -601,12 +601,12 @@
       <c r="N9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>◁</t>
         </is>
       </c>
+      <c r="C10" s="2" t="n"/>
       <c r="D10" s="2" t="n"/>
       <c r="H10" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
       <c r="N10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" s="2" t="n"/>
       <c r="H11" t="inlineStr">
         <is>
@@ -632,13 +632,13 @@
       <c r="N11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>⇒</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>⇒</t>
-        </is>
-      </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
           <t>▷</t>
@@ -656,8 +656,8 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
       <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -670,8 +670,8 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>mileage_calculator</t>
@@ -693,17 +693,17 @@
       <c r="N14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>◁</t>
         </is>
       </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Car</t>
@@ -718,8 +718,8 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>__init__</t>
@@ -734,8 +734,8 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
       <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>pollution_permit</t>
@@ -762,13 +762,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>⇒</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
           <t>⇒</t>
@@ -835,12 +835,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>◁</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>◁</t>
+          <t>←</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
